--- a/data/pca/factorExposure/factorExposure_2011-09-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,24 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +729,63 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.02188464771332252</v>
+        <v>0.01745200825547423</v>
       </c>
       <c r="C2">
-        <v>-0.01844776016275327</v>
+        <v>-0.009393737327708495</v>
       </c>
       <c r="D2">
-        <v>-0.04452714584596123</v>
+        <v>-0.03590045430188901</v>
       </c>
       <c r="E2">
-        <v>-0.06722472107794401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03411556207143689</v>
+      </c>
+      <c r="F2">
+        <v>0.02950721353271321</v>
+      </c>
+      <c r="G2">
+        <v>0.003502727358055191</v>
+      </c>
+      <c r="H2">
+        <v>0.01566174339023109</v>
+      </c>
+      <c r="I2">
+        <v>-0.01727752164825776</v>
+      </c>
+      <c r="J2">
+        <v>-0.05604344391174612</v>
+      </c>
+      <c r="K2">
+        <v>0.0651273549158751</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +799,63 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.08021207618756232</v>
+        <v>0.09485246825890972</v>
       </c>
       <c r="C4">
-        <v>-0.04895048777025497</v>
+        <v>-0.05034535015161485</v>
       </c>
       <c r="D4">
-        <v>-0.04927807205948688</v>
+        <v>-0.03884943871735991</v>
       </c>
       <c r="E4">
-        <v>-0.01340088912934618</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01503721829871357</v>
+      </c>
+      <c r="F4">
+        <v>0.0747636570428533</v>
+      </c>
+      <c r="G4">
+        <v>0.02041930979815807</v>
+      </c>
+      <c r="H4">
+        <v>0.005616182748264917</v>
+      </c>
+      <c r="I4">
+        <v>0.07330261138807891</v>
+      </c>
+      <c r="J4">
+        <v>0.0273565405869664</v>
+      </c>
+      <c r="K4">
+        <v>-0.04854585859647131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +869,413 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1211500028276658</v>
+        <v>0.1319198371269168</v>
       </c>
       <c r="C6">
-        <v>0.001014665077851086</v>
+        <v>-0.006222510907073012</v>
       </c>
       <c r="D6">
-        <v>-0.04744505101052254</v>
+        <v>-0.06855260325288072</v>
       </c>
       <c r="E6">
-        <v>-0.07228068213123494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02128032066823279</v>
+      </c>
+      <c r="F6">
+        <v>0.03184699202356342</v>
+      </c>
+      <c r="G6">
+        <v>0.07494548596302315</v>
+      </c>
+      <c r="H6">
+        <v>-0.1858528854676051</v>
+      </c>
+      <c r="I6">
+        <v>0.02508474157330146</v>
+      </c>
+      <c r="J6">
+        <v>0.4487672340196785</v>
+      </c>
+      <c r="K6">
+        <v>-0.02627774261462108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.07571795341143628</v>
+        <v>0.07304392639484057</v>
       </c>
       <c r="C7">
-        <v>-0.01868331409388099</v>
+        <v>-0.05181474109805963</v>
       </c>
       <c r="D7">
-        <v>-0.05919746119162086</v>
+        <v>-0.05311700449043195</v>
       </c>
       <c r="E7">
-        <v>-0.05242904567203334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.02194265175997596</v>
+      </c>
+      <c r="F7">
+        <v>0.02940024073217263</v>
+      </c>
+      <c r="G7">
+        <v>-0.01322499556946462</v>
+      </c>
+      <c r="H7">
+        <v>0.0007325355086731318</v>
+      </c>
+      <c r="I7">
+        <v>0.03826267799574487</v>
+      </c>
+      <c r="J7">
+        <v>-0.06386591263798512</v>
+      </c>
+      <c r="K7">
+        <v>-0.06969471738234119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.03923814763504099</v>
+        <v>0.04133828562117213</v>
       </c>
       <c r="C8">
-        <v>-0.04957449390230213</v>
+        <v>-0.0225683976658067</v>
       </c>
       <c r="D8">
-        <v>0.009671772958098516</v>
+        <v>0.002676825647290232</v>
       </c>
       <c r="E8">
-        <v>-0.05823630239786472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.06208303940248417</v>
+      </c>
+      <c r="F8">
+        <v>0.04839532538510429</v>
+      </c>
+      <c r="G8">
+        <v>0.04966680205747583</v>
+      </c>
+      <c r="H8">
+        <v>-0.0143143387084331</v>
+      </c>
+      <c r="I8">
+        <v>0.1086455735200061</v>
+      </c>
+      <c r="J8">
+        <v>0.007747924912777723</v>
+      </c>
+      <c r="K8">
+        <v>-0.03704997149040462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.07894638337743905</v>
+        <v>0.08699588462284882</v>
       </c>
       <c r="C9">
-        <v>-0.05801793987188283</v>
+        <v>-0.05106901550599553</v>
       </c>
       <c r="D9">
-        <v>-0.04321216613939836</v>
+        <v>-0.03696877031089599</v>
       </c>
       <c r="E9">
-        <v>-0.01962952069786255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01286138629960062</v>
+      </c>
+      <c r="F9">
+        <v>0.05820110867885741</v>
+      </c>
+      <c r="G9">
+        <v>0.03162729668526833</v>
+      </c>
+      <c r="H9">
+        <v>0.01066970299078497</v>
+      </c>
+      <c r="I9">
+        <v>0.08839447983559061</v>
+      </c>
+      <c r="J9">
+        <v>0.02506082719127367</v>
+      </c>
+      <c r="K9">
+        <v>-0.02477012039119129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.01501636443848322</v>
+        <v>0.06875454766849179</v>
       </c>
       <c r="C10">
-        <v>0.164126259126527</v>
+        <v>0.1986208095808639</v>
       </c>
       <c r="D10">
-        <v>-0.0004691299346592538</v>
+        <v>-0.02620545232263844</v>
       </c>
       <c r="E10">
-        <v>-0.07815323843253319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.04436861402602191</v>
+      </c>
+      <c r="F10">
+        <v>0.03032849928628419</v>
+      </c>
+      <c r="G10">
+        <v>-0.03838033213918276</v>
+      </c>
+      <c r="H10">
+        <v>-0.01590727155798254</v>
+      </c>
+      <c r="I10">
+        <v>-0.03248590345413625</v>
+      </c>
+      <c r="J10">
+        <v>-0.01685203597562924</v>
+      </c>
+      <c r="K10">
+        <v>0.014709495945853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.07270987328349804</v>
+        <v>0.07452104176735709</v>
       </c>
       <c r="C11">
-        <v>-0.06037706399292422</v>
+        <v>-0.05917667573555997</v>
       </c>
       <c r="D11">
-        <v>-0.03164630028525077</v>
+        <v>-0.03262216169305175</v>
       </c>
       <c r="E11">
-        <v>-0.03543287390011512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01697692006292984</v>
+      </c>
+      <c r="F11">
+        <v>0.02419285815833704</v>
+      </c>
+      <c r="G11">
+        <v>0.05270631513803467</v>
+      </c>
+      <c r="H11">
+        <v>0.02939145491718387</v>
+      </c>
+      <c r="I11">
+        <v>0.07623270208599479</v>
+      </c>
+      <c r="J11">
+        <v>-0.04645755047619933</v>
+      </c>
+      <c r="K11">
+        <v>0.04926693846598807</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.0704431605612998</v>
+        <v>0.07319157964315465</v>
       </c>
       <c r="C12">
-        <v>-0.04524411387378408</v>
+        <v>-0.0480684270694626</v>
       </c>
       <c r="D12">
-        <v>-0.03917858537035217</v>
+        <v>-0.02836017402006117</v>
       </c>
       <c r="E12">
-        <v>-0.03007905899963655</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.009641046389985549</v>
+      </c>
+      <c r="F12">
+        <v>0.03715152078147848</v>
+      </c>
+      <c r="G12">
+        <v>0.04006780542712617</v>
+      </c>
+      <c r="H12">
+        <v>0.004462452652953121</v>
+      </c>
+      <c r="I12">
+        <v>0.08941049523980228</v>
+      </c>
+      <c r="J12">
+        <v>-0.05133186397221624</v>
+      </c>
+      <c r="K12">
+        <v>0.02445227130229244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.08251388895191399</v>
+        <v>0.07046203057311298</v>
       </c>
       <c r="C13">
-        <v>-0.03347078128126846</v>
+        <v>-0.03772685271594398</v>
       </c>
       <c r="D13">
-        <v>-0.02799412669387221</v>
+        <v>0.007106688789602367</v>
       </c>
       <c r="E13">
-        <v>-0.01817920799371619</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.009309001128885481</v>
+      </c>
+      <c r="F13">
+        <v>0.04441738535393244</v>
+      </c>
+      <c r="G13">
+        <v>0.002779721948074776</v>
+      </c>
+      <c r="H13">
+        <v>0.001643837229660829</v>
+      </c>
+      <c r="I13">
+        <v>0.09118625892801856</v>
+      </c>
+      <c r="J13">
+        <v>-0.04790843448432497</v>
+      </c>
+      <c r="K13">
+        <v>-0.09799372201584332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.0343820050734668</v>
+        <v>0.04391622728606717</v>
       </c>
       <c r="C14">
-        <v>0.006875620329196758</v>
+        <v>-0.007455429874026002</v>
       </c>
       <c r="D14">
-        <v>-0.0311358378684777</v>
+        <v>-0.03532585569418314</v>
       </c>
       <c r="E14">
-        <v>-0.00786505572433863</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.002339033193213703</v>
+      </c>
+      <c r="F14">
+        <v>0.02778032860861428</v>
+      </c>
+      <c r="G14">
+        <v>0.01865966240142389</v>
+      </c>
+      <c r="H14">
+        <v>0.05041511326146927</v>
+      </c>
+      <c r="I14">
+        <v>0.06565661562868022</v>
+      </c>
+      <c r="J14">
+        <v>0.03438239630554265</v>
+      </c>
+      <c r="K14">
+        <v>-0.04618354470940542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.05703241201044277</v>
+        <v>0.044890246886574</v>
       </c>
       <c r="C15">
-        <v>-0.01506924866563488</v>
+        <v>-0.01532268178673305</v>
       </c>
       <c r="D15">
-        <v>-0.00909773834198643</v>
+        <v>0.01113705700438869</v>
       </c>
       <c r="E15">
-        <v>-0.008108491101659178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.001974889690871823</v>
+      </c>
+      <c r="F15">
+        <v>0.03371225316934556</v>
+      </c>
+      <c r="G15">
+        <v>0.000132129788685013</v>
+      </c>
+      <c r="H15">
+        <v>0.00694522240416981</v>
+      </c>
+      <c r="I15">
+        <v>0.03427191028178909</v>
+      </c>
+      <c r="J15">
+        <v>0.03472076378524096</v>
+      </c>
+      <c r="K15">
+        <v>-0.07338470838565141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.0642439241437409</v>
+        <v>0.07515911563849455</v>
       </c>
       <c r="C16">
-        <v>-0.05985151956734012</v>
+        <v>-0.05937483467958408</v>
       </c>
       <c r="D16">
-        <v>-0.03674141207117145</v>
+        <v>-0.03408864662756693</v>
       </c>
       <c r="E16">
-        <v>-0.02588290002761915</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.009339009684192915</v>
+      </c>
+      <c r="F16">
+        <v>0.03952551472925883</v>
+      </c>
+      <c r="G16">
+        <v>0.03142941191327398</v>
+      </c>
+      <c r="H16">
+        <v>0.02323811641478196</v>
+      </c>
+      <c r="I16">
+        <v>0.05823300002123514</v>
+      </c>
+      <c r="J16">
+        <v>-0.03366915915400656</v>
+      </c>
+      <c r="K16">
+        <v>0.0291466703810629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1289,28 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1324,28 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1359,273 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.06873780466470797</v>
+        <v>0.06181969889579993</v>
       </c>
       <c r="C20">
-        <v>-0.05137119758197017</v>
+        <v>-0.0378264328181127</v>
       </c>
       <c r="D20">
-        <v>-0.01571333532582501</v>
+        <v>-0.01128830138995522</v>
       </c>
       <c r="E20">
-        <v>-0.02615547707050658</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.01521568959451427</v>
+      </c>
+      <c r="F20">
+        <v>0.01377966439047699</v>
+      </c>
+      <c r="G20">
+        <v>0.02536268613256669</v>
+      </c>
+      <c r="H20">
+        <v>0.02644206597195351</v>
+      </c>
+      <c r="I20">
+        <v>0.121689012125778</v>
+      </c>
+      <c r="J20">
+        <v>-0.02326216861310254</v>
+      </c>
+      <c r="K20">
+        <v>-0.03918967623508559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.03719852387193765</v>
+        <v>0.03056226373223418</v>
       </c>
       <c r="C21">
-        <v>-0.02361614171729061</v>
+        <v>-0.02487586026806437</v>
       </c>
       <c r="D21">
-        <v>0.02539927243204445</v>
+        <v>0.03346937358829362</v>
       </c>
       <c r="E21">
-        <v>-0.01081682185271566</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.005793103374211787</v>
+      </c>
+      <c r="F21">
+        <v>0.02292164865713949</v>
+      </c>
+      <c r="G21">
+        <v>-0.001330599904325552</v>
+      </c>
+      <c r="H21">
+        <v>-0.06873754133816172</v>
+      </c>
+      <c r="I21">
+        <v>0.04529032572467056</v>
+      </c>
+      <c r="J21">
+        <v>0.03889006303641104</v>
+      </c>
+      <c r="K21">
+        <v>-0.06095718316766659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.1192756314975541</v>
+        <v>0.0953268830056939</v>
       </c>
       <c r="C22">
-        <v>-0.1039524819722827</v>
+        <v>-0.06455836983933179</v>
       </c>
       <c r="D22">
-        <v>0.02641692130880697</v>
+        <v>0.258671210997851</v>
       </c>
       <c r="E22">
-        <v>-0.009328392519919324</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.032666320496659</v>
+      </c>
+      <c r="F22">
+        <v>0.4807447665066633</v>
+      </c>
+      <c r="G22">
+        <v>-0.2908355833872163</v>
+      </c>
+      <c r="H22">
+        <v>-0.06889089219221835</v>
+      </c>
+      <c r="I22">
+        <v>-0.2518160342856038</v>
+      </c>
+      <c r="J22">
+        <v>-0.01843341123135771</v>
+      </c>
+      <c r="K22">
+        <v>0.03800459133050655</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.1202582003497059</v>
+        <v>0.09627674160649229</v>
       </c>
       <c r="C23">
-        <v>-0.1032031443072352</v>
+        <v>-0.06479165932130453</v>
       </c>
       <c r="D23">
-        <v>0.02451050468571261</v>
+        <v>0.2579192925691313</v>
       </c>
       <c r="E23">
-        <v>-0.01020434191638733</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.03301963816191544</v>
+      </c>
+      <c r="F23">
+        <v>0.48560520180324</v>
+      </c>
+      <c r="G23">
+        <v>-0.2865218747669034</v>
+      </c>
+      <c r="H23">
+        <v>-0.06682647054554297</v>
+      </c>
+      <c r="I23">
+        <v>-0.25269001049045</v>
+      </c>
+      <c r="J23">
+        <v>-0.01248892313125339</v>
+      </c>
+      <c r="K23">
+        <v>0.03841390918790943</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.08422916762114525</v>
+        <v>0.08419318340075509</v>
       </c>
       <c r="C24">
-        <v>-0.05831849970709951</v>
+        <v>-0.05683870615172512</v>
       </c>
       <c r="D24">
-        <v>-0.03155712705053737</v>
+        <v>-0.02586653414755007</v>
       </c>
       <c r="E24">
-        <v>-0.03995949508631869</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02047593431709898</v>
+      </c>
+      <c r="F24">
+        <v>0.04442104202639922</v>
+      </c>
+      <c r="G24">
+        <v>0.05159734494777437</v>
+      </c>
+      <c r="H24">
+        <v>0.008515047404991725</v>
+      </c>
+      <c r="I24">
+        <v>0.07575106459335214</v>
+      </c>
+      <c r="J24">
+        <v>-0.02568051185417615</v>
+      </c>
+      <c r="K24">
+        <v>0.03629262896450523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.0812512982917151</v>
+        <v>0.07898618205063949</v>
       </c>
       <c r="C25">
-        <v>-0.04880674234098229</v>
+        <v>-0.04604934574475733</v>
       </c>
       <c r="D25">
-        <v>-0.04715700735487127</v>
+        <v>-0.03675414259225343</v>
       </c>
       <c r="E25">
-        <v>-0.04774972448383694</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01230355431380137</v>
+      </c>
+      <c r="F25">
+        <v>0.04909818840159322</v>
+      </c>
+      <c r="G25">
+        <v>0.0399590576677471</v>
+      </c>
+      <c r="H25">
+        <v>0.02050952394898523</v>
+      </c>
+      <c r="I25">
+        <v>0.09173538015583881</v>
+      </c>
+      <c r="J25">
+        <v>-0.03311038373975649</v>
+      </c>
+      <c r="K25">
+        <v>0.05072961516790278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.05254034400685963</v>
+        <v>0.04701708916640163</v>
       </c>
       <c r="C26">
-        <v>-0.01392150370559765</v>
+        <v>-0.02285043214345476</v>
       </c>
       <c r="D26">
-        <v>0.00114083709771891</v>
+        <v>0.01659633207592862</v>
       </c>
       <c r="E26">
-        <v>-0.03265338751933591</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.01155617097768442</v>
+      </c>
+      <c r="F26">
+        <v>0.02219241886268956</v>
+      </c>
+      <c r="G26">
+        <v>0.01213040526669708</v>
+      </c>
+      <c r="H26">
+        <v>0.02873574022678142</v>
+      </c>
+      <c r="I26">
+        <v>0.03699385424216887</v>
+      </c>
+      <c r="J26">
+        <v>0.0102017648018317</v>
+      </c>
+      <c r="K26">
+        <v>-0.1231872937759971</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1639,343 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.04539243557084958</v>
+        <v>0.08624356031390507</v>
       </c>
       <c r="C28">
-        <v>0.2977374235135753</v>
+        <v>0.2966320516143384</v>
       </c>
       <c r="D28">
-        <v>-0.001449387671844901</v>
+        <v>0.0006836765948248953</v>
       </c>
       <c r="E28">
-        <v>-0.08089203098842614</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.02196097700084256</v>
+      </c>
+      <c r="F28">
+        <v>0.01215239073288303</v>
+      </c>
+      <c r="G28">
+        <v>0.01297016774395047</v>
+      </c>
+      <c r="H28">
+        <v>-0.04090706984435475</v>
+      </c>
+      <c r="I28">
+        <v>-0.02182610168518423</v>
+      </c>
+      <c r="J28">
+        <v>-0.003744092111309516</v>
+      </c>
+      <c r="K28">
+        <v>-0.05765540409341902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.05888929065895727</v>
+        <v>0.05503554832725684</v>
       </c>
       <c r="C29">
-        <v>-0.0004774002415833008</v>
+        <v>-0.01145394379699208</v>
       </c>
       <c r="D29">
-        <v>-0.03006315508501956</v>
+        <v>-0.0234006243357918</v>
       </c>
       <c r="E29">
-        <v>-0.02149814918988196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.01506177113596718</v>
+      </c>
+      <c r="F29">
+        <v>0.03550367607402837</v>
+      </c>
+      <c r="G29">
+        <v>0.01652431810456959</v>
+      </c>
+      <c r="H29">
+        <v>0.06476489004781974</v>
+      </c>
+      <c r="I29">
+        <v>0.04766162290563176</v>
+      </c>
+      <c r="J29">
+        <v>0.01385565285090859</v>
+      </c>
+      <c r="K29">
+        <v>-0.03954091527742328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.1534318787577701</v>
+        <v>0.1319634388430507</v>
       </c>
       <c r="C30">
-        <v>-0.06464222930112493</v>
+        <v>-0.05477812754732426</v>
       </c>
       <c r="D30">
-        <v>-0.06813405313044021</v>
+        <v>-0.03154423494924823</v>
       </c>
       <c r="E30">
-        <v>-0.05847706098498966</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02282289006847133</v>
+      </c>
+      <c r="F30">
+        <v>0.1193966903951683</v>
+      </c>
+      <c r="G30">
+        <v>0.06574807557872266</v>
+      </c>
+      <c r="H30">
+        <v>-0.09084137266591449</v>
+      </c>
+      <c r="I30">
+        <v>0.276440448826882</v>
+      </c>
+      <c r="J30">
+        <v>-0.1370495163302909</v>
+      </c>
+      <c r="K30">
+        <v>-0.2552931137830166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.05852606081250497</v>
+        <v>0.04766843494491936</v>
       </c>
       <c r="C31">
-        <v>-0.01563108601753096</v>
+        <v>-0.03516824250961666</v>
       </c>
       <c r="D31">
-        <v>-0.02547128342918195</v>
+        <v>-0.006398997285903108</v>
       </c>
       <c r="E31">
-        <v>-0.002962707051630582</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.008872259442152534</v>
+      </c>
+      <c r="F31">
+        <v>0.01817975788538886</v>
+      </c>
+      <c r="G31">
+        <v>-0.01355217025595906</v>
+      </c>
+      <c r="H31">
+        <v>0.05097897849318372</v>
+      </c>
+      <c r="I31">
+        <v>0.04487798320389078</v>
+      </c>
+      <c r="J31">
+        <v>0.02246170195631419</v>
+      </c>
+      <c r="K31">
+        <v>-0.02132040939912709</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.04549218446516322</v>
+        <v>0.05041945314814869</v>
       </c>
       <c r="C32">
-        <v>-0.007871022622283329</v>
+        <v>0.006485597552517695</v>
       </c>
       <c r="D32">
-        <v>-0.01321799956212023</v>
+        <v>0.01739413241368455</v>
       </c>
       <c r="E32">
-        <v>0.004009883655656937</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.009693791573669945</v>
+      </c>
+      <c r="F32">
+        <v>0.07523059600145435</v>
+      </c>
+      <c r="G32">
+        <v>-0.01450932136621409</v>
+      </c>
+      <c r="H32">
+        <v>-0.003086512014737375</v>
+      </c>
+      <c r="I32">
+        <v>-0.03193451585644708</v>
+      </c>
+      <c r="J32">
+        <v>-0.06217249124880158</v>
+      </c>
+      <c r="K32">
+        <v>-0.1265130214911203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.1033009873785523</v>
+        <v>0.1058579504257212</v>
       </c>
       <c r="C33">
-        <v>-0.02803772735689344</v>
+        <v>-0.04538224487276629</v>
       </c>
       <c r="D33">
-        <v>-0.0367592766553249</v>
+        <v>-0.01279419190091627</v>
       </c>
       <c r="E33">
-        <v>-0.008810637066106677</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.0192193585467554</v>
+      </c>
+      <c r="F33">
+        <v>0.03355265076121253</v>
+      </c>
+      <c r="G33">
+        <v>0.007369783463432609</v>
+      </c>
+      <c r="H33">
+        <v>0.02529746008482666</v>
+      </c>
+      <c r="I33">
+        <v>0.07188950771478546</v>
+      </c>
+      <c r="J33">
+        <v>0.006203099364629744</v>
+      </c>
+      <c r="K33">
+        <v>-0.0290032234142056</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06422848196025654</v>
+        <v>0.07045899800499483</v>
       </c>
       <c r="C34">
-        <v>-0.05742281234965171</v>
+        <v>-0.04764416271977524</v>
       </c>
       <c r="D34">
-        <v>-0.02295574090743304</v>
+        <v>-0.02124146089031339</v>
       </c>
       <c r="E34">
-        <v>-0.02566778793624238</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.01191078224321207</v>
+      </c>
+      <c r="F34">
+        <v>0.02937938085069048</v>
+      </c>
+      <c r="G34">
+        <v>0.03465801546938246</v>
+      </c>
+      <c r="H34">
+        <v>0.03310483378760069</v>
+      </c>
+      <c r="I34">
+        <v>0.07200662060250269</v>
+      </c>
+      <c r="J34">
+        <v>-0.01216367260394162</v>
+      </c>
+      <c r="K34">
+        <v>0.05723413881201091</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.04059029020391232</v>
+        <v>0.03513231414925399</v>
       </c>
       <c r="C35">
-        <v>-0.00738956534987375</v>
+        <v>-0.01757493015567295</v>
       </c>
       <c r="D35">
-        <v>-0.01667964163472635</v>
+        <v>-0.01106077043258736</v>
       </c>
       <c r="E35">
-        <v>-0.002233937302356767</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.009507663255893337</v>
+      </c>
+      <c r="F35">
+        <v>0.01339133772975632</v>
+      </c>
+      <c r="G35">
+        <v>-0.0113050151792944</v>
+      </c>
+      <c r="H35">
+        <v>0.01929537210016556</v>
+      </c>
+      <c r="I35">
+        <v>0.06056757784965691</v>
+      </c>
+      <c r="J35">
+        <v>-0.01320739267086564</v>
+      </c>
+      <c r="K35">
+        <v>-0.009919277605894807</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.03915187161108082</v>
+        <v>0.0347704510167471</v>
       </c>
       <c r="C36">
-        <v>-0.01574719728693532</v>
+        <v>-0.0125616651127415</v>
       </c>
       <c r="D36">
-        <v>-0.0148473130450116</v>
+        <v>-0.003129029283623669</v>
       </c>
       <c r="E36">
-        <v>-0.03008355380168373</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.01723415178946837</v>
+      </c>
+      <c r="F36">
+        <v>0.0369313136889841</v>
+      </c>
+      <c r="G36">
+        <v>0.01433911566744899</v>
+      </c>
+      <c r="H36">
+        <v>0.01634318081492103</v>
+      </c>
+      <c r="I36">
+        <v>0.07311831697810044</v>
+      </c>
+      <c r="J36">
+        <v>-0.006452519862985328</v>
+      </c>
+      <c r="K36">
+        <v>-0.04444891943130415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1989,168 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.06671313971694665</v>
+        <v>0.05308822900601302</v>
       </c>
       <c r="C38">
-        <v>-0.008197169892835574</v>
+        <v>-0.04238909348989309</v>
       </c>
       <c r="D38">
-        <v>0.02162914267840937</v>
+        <v>0.03583730546928122</v>
       </c>
       <c r="E38">
-        <v>0.009041233985979304</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.01730218984218015</v>
+      </c>
+      <c r="F38">
+        <v>-0.004810008887711023</v>
+      </c>
+      <c r="G38">
+        <v>0.001658109450442859</v>
+      </c>
+      <c r="H38">
+        <v>0.01056522674683877</v>
+      </c>
+      <c r="I38">
+        <v>-0.05818468077739316</v>
+      </c>
+      <c r="J38">
+        <v>-0.02846059362857196</v>
+      </c>
+      <c r="K38">
+        <v>-0.05555842867097978</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.09371054666373749</v>
+        <v>0.09938637398247055</v>
       </c>
       <c r="C39">
-        <v>-0.04435520798164087</v>
+        <v>-0.05005759830312654</v>
       </c>
       <c r="D39">
-        <v>-0.03939209006915713</v>
+        <v>-0.03132424630676669</v>
       </c>
       <c r="E39">
-        <v>-0.003969381979757265</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.003333893102657131</v>
+      </c>
+      <c r="F39">
+        <v>0.03994325955768663</v>
+      </c>
+      <c r="G39">
+        <v>0.03795562546174727</v>
+      </c>
+      <c r="H39">
+        <v>0.007266407658907119</v>
+      </c>
+      <c r="I39">
+        <v>0.08859050450157398</v>
+      </c>
+      <c r="J39">
+        <v>-0.1418427478189017</v>
+      </c>
+      <c r="K39">
+        <v>0.01428566252016355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.07591570710525963</v>
+        <v>0.04788911120027405</v>
       </c>
       <c r="C40">
-        <v>-0.01501726038515868</v>
+        <v>-0.04041672326749175</v>
       </c>
       <c r="D40">
-        <v>-0.03045184864291181</v>
+        <v>0.03256374647215066</v>
       </c>
       <c r="E40">
-        <v>-0.01775857880862401</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.005220819068337734</v>
+      </c>
+      <c r="F40">
+        <v>0.06511153714738116</v>
+      </c>
+      <c r="G40">
+        <v>0.09021512178218269</v>
+      </c>
+      <c r="H40">
+        <v>-0.08352092708576817</v>
+      </c>
+      <c r="I40">
+        <v>0.1323668666318082</v>
+      </c>
+      <c r="J40">
+        <v>-0.2688426209587361</v>
+      </c>
+      <c r="K40">
+        <v>-0.06564490717604765</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.0628620009297782</v>
+        <v>0.04838552173840634</v>
       </c>
       <c r="C41">
-        <v>-0.02621602549982819</v>
+        <v>-0.03228385743342492</v>
       </c>
       <c r="D41">
-        <v>-0.009451336066237824</v>
+        <v>-0.003602579922959306</v>
       </c>
       <c r="E41">
-        <v>0.00606543479136217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0002633685678347913</v>
+      </c>
+      <c r="F41">
+        <v>-0.01692375725037223</v>
+      </c>
+      <c r="G41">
+        <v>0.01656874542058945</v>
+      </c>
+      <c r="H41">
+        <v>0.0311877790122188</v>
+      </c>
+      <c r="I41">
+        <v>0.007357212579095732</v>
+      </c>
+      <c r="J41">
+        <v>-0.0378840919634898</v>
+      </c>
+      <c r="K41">
+        <v>-0.03494761559950846</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2164,98 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.06448594320585907</v>
+        <v>0.06156223909385711</v>
       </c>
       <c r="C43">
-        <v>-0.01594943646332408</v>
+        <v>-0.0344115610584976</v>
       </c>
       <c r="D43">
-        <v>-0.01751338007565928</v>
+        <v>-0.0105557349892353</v>
       </c>
       <c r="E43">
-        <v>-0.0200996220910509</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01989538136328307</v>
+      </c>
+      <c r="F43">
+        <v>0.01659740142501972</v>
+      </c>
+      <c r="G43">
+        <v>0.002791138499490223</v>
+      </c>
+      <c r="H43">
+        <v>0.05435413213414487</v>
+      </c>
+      <c r="I43">
+        <v>0.01121763748350984</v>
+      </c>
+      <c r="J43">
+        <v>-0.01305268178694342</v>
+      </c>
+      <c r="K43">
+        <v>-0.007781052490405501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.09490663776877889</v>
+        <v>0.0969022435490417</v>
       </c>
       <c r="C44">
-        <v>-0.05360353424790218</v>
+        <v>-0.05279846481904638</v>
       </c>
       <c r="D44">
-        <v>-0.01695578674691952</v>
+        <v>-0.002574784991376839</v>
       </c>
       <c r="E44">
-        <v>-0.08492726543783062</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.0795764987066586</v>
+      </c>
+      <c r="F44">
+        <v>0.1078999073747089</v>
+      </c>
+      <c r="G44">
+        <v>0.06329958212522628</v>
+      </c>
+      <c r="H44">
+        <v>0.05620164888286058</v>
+      </c>
+      <c r="I44">
+        <v>0.1602646533785885</v>
+      </c>
+      <c r="J44">
+        <v>-0.0661695551191919</v>
+      </c>
+      <c r="K44">
+        <v>0.007977906425433896</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2269,238 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.03398060374840542</v>
+        <v>0.04772603977976808</v>
       </c>
       <c r="C46">
-        <v>-0.03206960263066499</v>
+        <v>-0.03146764565955183</v>
       </c>
       <c r="D46">
-        <v>-0.01532390385323316</v>
+        <v>-0.01449576927067889</v>
       </c>
       <c r="E46">
-        <v>-0.01857384945136208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.01893515868532173</v>
+      </c>
+      <c r="F46">
+        <v>0.04867870408960627</v>
+      </c>
+      <c r="G46">
+        <v>-0.007223608375854045</v>
+      </c>
+      <c r="H46">
+        <v>0.01520255662387277</v>
+      </c>
+      <c r="I46">
+        <v>0.0309540701977332</v>
+      </c>
+      <c r="J46">
+        <v>0.02974867168703287</v>
+      </c>
+      <c r="K46">
+        <v>-0.04123591064288232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.03857183383811071</v>
+        <v>0.04724292046809948</v>
       </c>
       <c r="C47">
-        <v>0.0074369619162704</v>
+        <v>-0.007837883219836412</v>
       </c>
       <c r="D47">
-        <v>-0.008894554137421044</v>
+        <v>0.004065573470756222</v>
       </c>
       <c r="E47">
-        <v>-0.01569518041737642</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.004107701416770046</v>
+      </c>
+      <c r="F47">
+        <v>0.04142949084203682</v>
+      </c>
+      <c r="G47">
+        <v>-0.0171081046007298</v>
+      </c>
+      <c r="H47">
+        <v>0.0150248639253963</v>
+      </c>
+      <c r="I47">
+        <v>0.02993387327698777</v>
+      </c>
+      <c r="J47">
+        <v>0.02893721087787353</v>
+      </c>
+      <c r="K47">
+        <v>0.002333595060900085</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.04994130981600973</v>
+        <v>0.0441200404213665</v>
       </c>
       <c r="C48">
-        <v>-0.02041426334149758</v>
+        <v>-0.01467969760754976</v>
       </c>
       <c r="D48">
-        <v>-0.02842085544673089</v>
+        <v>0.00359142662237503</v>
       </c>
       <c r="E48">
-        <v>-0.02236566000799199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002832549829488669</v>
+      </c>
+      <c r="F48">
+        <v>0.04629366413678097</v>
+      </c>
+      <c r="G48">
+        <v>-0.004775038206845732</v>
+      </c>
+      <c r="H48">
+        <v>-0.009932393622051124</v>
+      </c>
+      <c r="I48">
+        <v>0.05397103435743411</v>
+      </c>
+      <c r="J48">
+        <v>0.0006373763965942909</v>
+      </c>
+      <c r="K48">
+        <v>-0.05214736646280727</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.146322069513656</v>
+        <v>0.2041417433226643</v>
       </c>
       <c r="C49">
-        <v>-0.008071745931372403</v>
+        <v>-0.01800457306454124</v>
       </c>
       <c r="D49">
-        <v>-0.07200980789987424</v>
+        <v>-0.1571848076906225</v>
       </c>
       <c r="E49">
-        <v>-0.02982865224522105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.004582721743462615</v>
+      </c>
+      <c r="F49">
+        <v>-0.1323902094672303</v>
+      </c>
+      <c r="G49">
+        <v>-0.1052109761849276</v>
+      </c>
+      <c r="H49">
+        <v>-0.1822563927490949</v>
+      </c>
+      <c r="I49">
+        <v>-0.1301863258082667</v>
+      </c>
+      <c r="J49">
+        <v>-0.05263985516715994</v>
+      </c>
+      <c r="K49">
+        <v>0.231241876363392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.06604953177083345</v>
+        <v>0.05629083009335351</v>
       </c>
       <c r="C50">
-        <v>-0.02182382132303864</v>
+        <v>-0.03350257845695126</v>
       </c>
       <c r="D50">
-        <v>-0.03085677667057265</v>
+        <v>-0.01086300343248403</v>
       </c>
       <c r="E50">
-        <v>-0.004062698187444329</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01835984673676504</v>
+      </c>
+      <c r="F50">
+        <v>0.03055690433969207</v>
+      </c>
+      <c r="G50">
+        <v>-0.0002798416684028036</v>
+      </c>
+      <c r="H50">
+        <v>0.05780616644474926</v>
+      </c>
+      <c r="I50">
+        <v>0.03929033589229503</v>
+      </c>
+      <c r="J50">
+        <v>0.03780086984054298</v>
+      </c>
+      <c r="K50">
+        <v>-0.03525886305133085</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.03696736937929082</v>
+        <v>0.04053387036945788</v>
       </c>
       <c r="C51">
-        <v>0.009311714375430132</v>
+        <v>0.001853254964104177</v>
       </c>
       <c r="D51">
-        <v>0.01691463367968867</v>
+        <v>0.01525216701033465</v>
       </c>
       <c r="E51">
-        <v>-0.006883297811294172</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03095767801396687</v>
+      </c>
+      <c r="F51">
+        <v>-0.02436557037618138</v>
+      </c>
+      <c r="G51">
+        <v>-0.01051576980640567</v>
+      </c>
+      <c r="H51">
+        <v>-0.0176580933654855</v>
+      </c>
+      <c r="I51">
+        <v>-0.007461352463340763</v>
+      </c>
+      <c r="J51">
+        <v>-0.03639806544402083</v>
+      </c>
+      <c r="K51">
+        <v>0.07480213661982822</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2514,168 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.154906049879326</v>
+        <v>0.1558116548082346</v>
       </c>
       <c r="C53">
-        <v>0.03469472145756627</v>
+        <v>-0.01372814392181348</v>
       </c>
       <c r="D53">
-        <v>-0.06491106724022282</v>
+        <v>-0.06246097367223009</v>
       </c>
       <c r="E53">
-        <v>-0.002899182858653837</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.01762640056264807</v>
+      </c>
+      <c r="F53">
+        <v>-0.02770770764230079</v>
+      </c>
+      <c r="G53">
+        <v>-0.04609661356543308</v>
+      </c>
+      <c r="H53">
+        <v>0.2308050180430467</v>
+      </c>
+      <c r="I53">
+        <v>-0.05428029331928613</v>
+      </c>
+      <c r="J53">
+        <v>0.04404641276114964</v>
+      </c>
+      <c r="K53">
+        <v>0.04815616062139092</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.06666781920309388</v>
+        <v>0.06433201006556499</v>
       </c>
       <c r="C54">
-        <v>-0.02043047263514038</v>
+        <v>-0.01359575804708104</v>
       </c>
       <c r="D54">
-        <v>-0.009119483080273653</v>
+        <v>0.006397412059675502</v>
       </c>
       <c r="E54">
-        <v>-0.0366439632469801</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.02050423844259546</v>
+      </c>
+      <c r="F54">
+        <v>0.08507874607895957</v>
+      </c>
+      <c r="G54">
+        <v>0.04827986056795028</v>
+      </c>
+      <c r="H54">
+        <v>0.01048411022647645</v>
+      </c>
+      <c r="I54">
+        <v>0.1130785853713268</v>
+      </c>
+      <c r="J54">
+        <v>0.0200652213126467</v>
+      </c>
+      <c r="K54">
+        <v>-0.07728559381532353</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.09785759634938263</v>
+        <v>0.09657991198567108</v>
       </c>
       <c r="C55">
-        <v>0.0008600400729586468</v>
+        <v>-0.02869025292749866</v>
       </c>
       <c r="D55">
-        <v>-0.05127907135049677</v>
+        <v>-0.0425545216582594</v>
       </c>
       <c r="E55">
-        <v>-0.02227072178847924</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.003295763032724179</v>
+      </c>
+      <c r="F55">
+        <v>0.005833789525083945</v>
+      </c>
+      <c r="G55">
+        <v>0.003465101145111441</v>
+      </c>
+      <c r="H55">
+        <v>0.1744506254819786</v>
+      </c>
+      <c r="I55">
+        <v>0.01461166789220346</v>
+      </c>
+      <c r="J55">
+        <v>0.03209634128613409</v>
+      </c>
+      <c r="K55">
+        <v>0.04658617622034671</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.1534840535325637</v>
+        <v>0.1522260358919096</v>
       </c>
       <c r="C56">
-        <v>0.02982751544721389</v>
+        <v>-0.03277285280717689</v>
       </c>
       <c r="D56">
-        <v>-0.08440384555535488</v>
+        <v>-0.06950555481757451</v>
       </c>
       <c r="E56">
-        <v>-0.03932944288764358</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.005989503033618023</v>
+      </c>
+      <c r="F56">
+        <v>-0.003572687822527592</v>
+      </c>
+      <c r="G56">
+        <v>-0.02821139643094218</v>
+      </c>
+      <c r="H56">
+        <v>0.2335286083239647</v>
+      </c>
+      <c r="I56">
+        <v>-0.06426871826295612</v>
+      </c>
+      <c r="J56">
+        <v>0.01764495546597443</v>
+      </c>
+      <c r="K56">
+        <v>0.008651524158323374</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,656 +2689,1358 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.1168094276322517</v>
+        <v>0.07655289695470577</v>
       </c>
       <c r="C58">
-        <v>-0.0565893534994231</v>
+        <v>-0.04645657009313639</v>
       </c>
       <c r="D58">
-        <v>0.119980880062605</v>
+        <v>0.1667786548200758</v>
       </c>
       <c r="E58">
-        <v>-0.1202766119082608</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.08947672053005552</v>
+      </c>
+      <c r="F58">
+        <v>0.04050136560046204</v>
+      </c>
+      <c r="G58">
+        <v>-0.1123011133888618</v>
+      </c>
+      <c r="H58">
+        <v>-0.2650374489128577</v>
+      </c>
+      <c r="I58">
+        <v>0.4709998910258387</v>
+      </c>
+      <c r="J58">
+        <v>-0.06573625831005689</v>
+      </c>
+      <c r="K58">
+        <v>0.2081672600270184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.1302499864056718</v>
+        <v>0.168312575693025</v>
       </c>
       <c r="C59">
-        <v>0.4422387207182334</v>
+        <v>0.3548944610933172</v>
       </c>
       <c r="D59">
-        <v>0.02020382996646161</v>
+        <v>0.02384712767044991</v>
       </c>
       <c r="E59">
-        <v>-0.08985906044452177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.03395232405654565</v>
+      </c>
+      <c r="F59">
+        <v>-0.02058082779512809</v>
+      </c>
+      <c r="G59">
+        <v>0.03014144916227355</v>
+      </c>
+      <c r="H59">
+        <v>0.05296279849849574</v>
+      </c>
+      <c r="I59">
+        <v>-0.02988339096831386</v>
+      </c>
+      <c r="J59">
+        <v>-0.06853005426636874</v>
+      </c>
+      <c r="K59">
+        <v>0.002891543211848787</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.2197810127585504</v>
+        <v>0.2458966733742982</v>
       </c>
       <c r="C60">
-        <v>0.02678050690090167</v>
+        <v>-0.03671470488815336</v>
       </c>
       <c r="D60">
-        <v>-0.07642866233682921</v>
+        <v>-0.1206717943353766</v>
       </c>
       <c r="E60">
-        <v>-0.05273086783535992</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.02703107626286682</v>
+      </c>
+      <c r="F60">
+        <v>-0.07937156251687749</v>
+      </c>
+      <c r="G60">
+        <v>0.0006625843093726587</v>
+      </c>
+      <c r="H60">
+        <v>-0.1072484967063127</v>
+      </c>
+      <c r="I60">
+        <v>-0.1398664650145375</v>
+      </c>
+      <c r="J60">
+        <v>0.09813463508822413</v>
+      </c>
+      <c r="K60">
+        <v>0.1497439629586903</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.08155416877387442</v>
+        <v>0.08906602565341608</v>
       </c>
       <c r="C61">
-        <v>-0.02525948757124423</v>
+        <v>-0.03682084810009786</v>
       </c>
       <c r="D61">
-        <v>-0.03026345823701827</v>
+        <v>-0.02853613332682927</v>
       </c>
       <c r="E61">
-        <v>-0.006789238963764351</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.008314160626350141</v>
+      </c>
+      <c r="F61">
+        <v>0.03114498650944862</v>
+      </c>
+      <c r="G61">
+        <v>0.04377744558839659</v>
+      </c>
+      <c r="H61">
+        <v>0.05722289860085029</v>
+      </c>
+      <c r="I61">
+        <v>0.05603878515096512</v>
+      </c>
+      <c r="J61">
+        <v>-0.07156927227758458</v>
+      </c>
+      <c r="K61">
+        <v>-0.00234004472692212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>-0.1488820540745609</v>
+        <v>0.1460589193036845</v>
       </c>
       <c r="C62">
-        <v>0.02399044260383368</v>
+        <v>-0.03677593645169534</v>
       </c>
       <c r="D62">
-        <v>-0.04251729023788332</v>
+        <v>-0.04093736240663752</v>
       </c>
       <c r="E62">
-        <v>0.0207806428147804</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.03895682467071993</v>
+      </c>
+      <c r="F62">
+        <v>-0.03676531852781428</v>
+      </c>
+      <c r="G62">
+        <v>-0.0005183279634537233</v>
+      </c>
+      <c r="H62">
+        <v>0.2300295910162851</v>
+      </c>
+      <c r="I62">
+        <v>-0.06961340327817486</v>
+      </c>
+      <c r="J62">
+        <v>0.08421016503742505</v>
+      </c>
+      <c r="K62">
+        <v>0.005725115984334908</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.06252840400905965</v>
+        <v>0.0544757107847112</v>
       </c>
       <c r="C63">
-        <v>-0.02613763761458394</v>
+        <v>-0.02100371610283612</v>
       </c>
       <c r="D63">
-        <v>-0.02115609505383458</v>
+        <v>-0.009497520759506209</v>
       </c>
       <c r="E63">
-        <v>-0.01392400952112348</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.009410931910522636</v>
+      </c>
+      <c r="F63">
+        <v>0.03342040810107599</v>
+      </c>
+      <c r="G63">
+        <v>0.03703780064098749</v>
+      </c>
+      <c r="H63">
+        <v>0.02071042416187014</v>
+      </c>
+      <c r="I63">
+        <v>0.05071118819230147</v>
+      </c>
+      <c r="J63">
+        <v>0.0293071694020003</v>
+      </c>
+      <c r="K63">
+        <v>-0.04066790996687374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.1014519502229427</v>
+        <v>0.1069307777822014</v>
       </c>
       <c r="C64">
-        <v>0.003273683053244407</v>
+        <v>-0.01812752620027346</v>
       </c>
       <c r="D64">
-        <v>-0.05344183521158387</v>
+        <v>-0.0517925071371248</v>
       </c>
       <c r="E64">
-        <v>-0.02886303879678958</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.01701569968865844</v>
+      </c>
+      <c r="F64">
+        <v>0.05935586160733351</v>
+      </c>
+      <c r="G64">
+        <v>0.03459273484625089</v>
+      </c>
+      <c r="H64">
+        <v>-0.01662757850145918</v>
+      </c>
+      <c r="I64">
+        <v>0.0459523643722532</v>
+      </c>
+      <c r="J64">
+        <v>-0.04697022716490518</v>
+      </c>
+      <c r="K64">
+        <v>-0.0218401490282212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.1210377766331703</v>
+        <v>0.1319383480789794</v>
       </c>
       <c r="C65">
-        <v>-0.02457753073351946</v>
+        <v>-0.0101071252942905</v>
       </c>
       <c r="D65">
-        <v>-0.04460425133280643</v>
+        <v>-0.06152048085584036</v>
       </c>
       <c r="E65">
-        <v>-0.04898475526026076</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.00689383281875791</v>
+      </c>
+      <c r="F65">
+        <v>0.04248631380552317</v>
+      </c>
+      <c r="G65">
+        <v>0.08951788394274107</v>
+      </c>
+      <c r="H65">
+        <v>-0.2153406284128821</v>
+      </c>
+      <c r="I65">
+        <v>0.1074063580013057</v>
+      </c>
+      <c r="J65">
+        <v>0.6490514880902246</v>
+      </c>
+      <c r="K65">
+        <v>0.01051580982697365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.1585291157616311</v>
+        <v>0.1468094606473514</v>
       </c>
       <c r="C66">
-        <v>-0.07710154351119246</v>
+        <v>-0.09224645911238499</v>
       </c>
       <c r="D66">
-        <v>-0.05506128713463441</v>
+        <v>-0.044364528020266</v>
       </c>
       <c r="E66">
-        <v>-0.01169333749483203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.002028017109993467</v>
+      </c>
+      <c r="F66">
+        <v>0.02810993382166045</v>
+      </c>
+      <c r="G66">
+        <v>0.08154169742153612</v>
+      </c>
+      <c r="H66">
+        <v>0.03560618059199075</v>
+      </c>
+      <c r="I66">
+        <v>0.1083159759204575</v>
+      </c>
+      <c r="J66">
+        <v>-0.2168282632681699</v>
+      </c>
+      <c r="K66">
+        <v>-0.04043343050609405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.0973340059019264</v>
+        <v>0.09729394574977587</v>
       </c>
       <c r="C67">
-        <v>-0.008338119579494943</v>
+        <v>-0.0457264728496544</v>
       </c>
       <c r="D67">
-        <v>0.02653737077050737</v>
+        <v>0.01684941477109373</v>
       </c>
       <c r="E67">
-        <v>-0.01229804598312688</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.04242073677656977</v>
+      </c>
+      <c r="F67">
+        <v>-0.02133204250218328</v>
+      </c>
+      <c r="G67">
+        <v>0.0292370503701748</v>
+      </c>
+      <c r="H67">
+        <v>0.006408235105459035</v>
+      </c>
+      <c r="I67">
+        <v>-0.1018060871619447</v>
+      </c>
+      <c r="J67">
+        <v>-0.05347530995848723</v>
+      </c>
+      <c r="K67">
+        <v>-0.03832103405436282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.04150676470142644</v>
+        <v>0.07683463040313043</v>
       </c>
       <c r="C68">
-        <v>0.2595861933867135</v>
+        <v>0.2804179054717625</v>
       </c>
       <c r="D68">
-        <v>0.01331754782947047</v>
+        <v>0.01739338654940186</v>
       </c>
       <c r="E68">
-        <v>-0.0471130655593632</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01535189925757892</v>
+      </c>
+      <c r="F68">
+        <v>0.03814476063263693</v>
+      </c>
+      <c r="G68">
+        <v>-0.02044862735387647</v>
+      </c>
+      <c r="H68">
+        <v>0.01317857032802979</v>
+      </c>
+      <c r="I68">
+        <v>0.03434646113432702</v>
+      </c>
+      <c r="J68">
+        <v>0.03769277504291182</v>
+      </c>
+      <c r="K68">
+        <v>-0.01924682495306372</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.06826041821265968</v>
+        <v>0.05662331089714785</v>
       </c>
       <c r="C69">
-        <v>-0.01253985421722057</v>
+        <v>-0.01752466752470438</v>
       </c>
       <c r="D69">
-        <v>0.00297962083944413</v>
+        <v>0.02207282123215501</v>
       </c>
       <c r="E69">
-        <v>-0.01466884734037547</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.004856039118831261</v>
+      </c>
+      <c r="F69">
+        <v>0.006604268857730793</v>
+      </c>
+      <c r="G69">
+        <v>0.007038414092464639</v>
+      </c>
+      <c r="H69">
+        <v>0.03206799307071157</v>
+      </c>
+      <c r="I69">
+        <v>0.009542514736898154</v>
+      </c>
+      <c r="J69">
+        <v>-0.005502192289085647</v>
+      </c>
+      <c r="K69">
+        <v>0.005574708874259616</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>-0.01548277755379643</v>
+        <v>0.03923404328472672</v>
       </c>
       <c r="C70">
-        <v>0.01317936729770955</v>
+        <v>-0.007090755089875588</v>
       </c>
       <c r="D70">
-        <v>0.004263898935820958</v>
+        <v>0.0007820958092307914</v>
       </c>
       <c r="E70">
-        <v>0.01592753886237688</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.002646338481732421</v>
+      </c>
+      <c r="F70">
+        <v>-0.05067462484236747</v>
+      </c>
+      <c r="G70">
+        <v>0.001361902207563549</v>
+      </c>
+      <c r="H70">
+        <v>-0.04274934361967036</v>
+      </c>
+      <c r="I70">
+        <v>-0.02381901010966714</v>
+      </c>
+      <c r="J70">
+        <v>-0.02188802097981654</v>
+      </c>
+      <c r="K70">
+        <v>-0.1146933805452316</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.03841978442753494</v>
+        <v>0.08633902952825712</v>
       </c>
       <c r="C71">
-        <v>0.2869716230347434</v>
+        <v>0.3002211231295306</v>
       </c>
       <c r="D71">
-        <v>0.01794734098147963</v>
+        <v>0.006261849647828385</v>
       </c>
       <c r="E71">
-        <v>-0.07877139730022377</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03264304586680554</v>
+      </c>
+      <c r="F71">
+        <v>0.03606563940206504</v>
+      </c>
+      <c r="G71">
+        <v>-0.006549661568085124</v>
+      </c>
+      <c r="H71">
+        <v>0.01406139344567105</v>
+      </c>
+      <c r="I71">
+        <v>0.02127604685694462</v>
+      </c>
+      <c r="J71">
+        <v>0.009257564613711789</v>
+      </c>
+      <c r="K71">
+        <v>-0.004059516643819816</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.1458172563565107</v>
+        <v>0.1362370446928214</v>
       </c>
       <c r="C72">
-        <v>0.04523036911448089</v>
+        <v>0.0005300832296258022</v>
       </c>
       <c r="D72">
-        <v>-0.03237344721637717</v>
+        <v>0.02870086589696172</v>
       </c>
       <c r="E72">
-        <v>0.2312707150075563</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.1688751108553836</v>
+      </c>
+      <c r="F72">
+        <v>-0.02162761954084531</v>
+      </c>
+      <c r="G72">
+        <v>0.1106139942227313</v>
+      </c>
+      <c r="H72">
+        <v>0.0262865545018672</v>
+      </c>
+      <c r="I72">
+        <v>-0.01347853044089851</v>
+      </c>
+      <c r="J72">
+        <v>0.1110435888186945</v>
+      </c>
+      <c r="K72">
+        <v>0.1189356905332872</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.252488014870227</v>
+        <v>0.2455122303072991</v>
       </c>
       <c r="C73">
-        <v>-0.05544151142882778</v>
+        <v>-0.1057209219876742</v>
       </c>
       <c r="D73">
-        <v>-0.09317705041322129</v>
+        <v>-0.1648331373635067</v>
       </c>
       <c r="E73">
-        <v>-0.08993327417075098</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.07935517019433858</v>
+      </c>
+      <c r="F73">
+        <v>-0.2560610194495836</v>
+      </c>
+      <c r="G73">
+        <v>-0.1561973845530523</v>
+      </c>
+      <c r="H73">
+        <v>-0.2677026417209008</v>
+      </c>
+      <c r="I73">
+        <v>-0.1195901157507642</v>
+      </c>
+      <c r="J73">
+        <v>-0.2269638492651919</v>
+      </c>
+      <c r="K73">
+        <v>0.476511316616726</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.08525720993270802</v>
+        <v>0.09232694502893522</v>
       </c>
       <c r="C74">
-        <v>0.01756589263802048</v>
+        <v>-0.02871776548090394</v>
       </c>
       <c r="D74">
-        <v>-0.05366233817405285</v>
+        <v>-0.04575872762153715</v>
       </c>
       <c r="E74">
-        <v>-0.005549378347258824</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01578876177513736</v>
+      </c>
+      <c r="F74">
+        <v>0.0001930163695401282</v>
+      </c>
+      <c r="G74">
+        <v>-0.04465509911868733</v>
+      </c>
+      <c r="H74">
+        <v>0.1379084164670523</v>
+      </c>
+      <c r="I74">
+        <v>0.003539150399550496</v>
+      </c>
+      <c r="J74">
+        <v>0.001325475550526608</v>
+      </c>
+      <c r="K74">
+        <v>0.05732194734419536</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.1224070515209057</v>
+        <v>0.1049951408588219</v>
       </c>
       <c r="C75">
-        <v>0.001550591339667169</v>
+        <v>-0.02965688045725311</v>
       </c>
       <c r="D75">
-        <v>-0.005800658009081022</v>
+        <v>0.01644892807503484</v>
       </c>
       <c r="E75">
-        <v>-0.02306107277013136</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.004994014899949406</v>
+      </c>
+      <c r="F75">
+        <v>-0.02386696188408845</v>
+      </c>
+      <c r="G75">
+        <v>-0.02695540784462536</v>
+      </c>
+      <c r="H75">
+        <v>0.1205540776665818</v>
+      </c>
+      <c r="I75">
+        <v>-0.03160100838388305</v>
+      </c>
+      <c r="J75">
+        <v>0.03390900496322938</v>
+      </c>
+      <c r="K75">
+        <v>0.00654762513335607</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.1396386796423478</v>
+        <v>0.1269024302642898</v>
       </c>
       <c r="C76">
-        <v>0.008401201492735494</v>
+        <v>-0.04691308593172352</v>
       </c>
       <c r="D76">
-        <v>-0.06869271364908557</v>
+        <v>-0.06460436657286432</v>
       </c>
       <c r="E76">
-        <v>-0.02443470180796352</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.00331148213940326</v>
+      </c>
+      <c r="F76">
+        <v>-0.00107350024694088</v>
+      </c>
+      <c r="G76">
+        <v>-0.03709169569099573</v>
+      </c>
+      <c r="H76">
+        <v>0.2657416541728137</v>
+      </c>
+      <c r="I76">
+        <v>-0.03801183519542464</v>
+      </c>
+      <c r="J76">
+        <v>0.04067795254695723</v>
+      </c>
+      <c r="K76">
+        <v>0.02214169484202386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.1326381646205678</v>
+        <v>0.09218130686787246</v>
       </c>
       <c r="C77">
-        <v>-0.03703591965766022</v>
+        <v>-0.02702949519894408</v>
       </c>
       <c r="D77">
-        <v>0.05856198871218108</v>
+        <v>0.1238887204052623</v>
       </c>
       <c r="E77">
-        <v>-0.02822349727275357</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.1011685244155879</v>
+      </c>
+      <c r="F77">
+        <v>0.1234911970025285</v>
+      </c>
+      <c r="G77">
+        <v>0.7649087062378672</v>
+      </c>
+      <c r="H77">
+        <v>-0.1236122995006279</v>
+      </c>
+      <c r="I77">
+        <v>-0.3867794832033046</v>
+      </c>
+      <c r="J77">
+        <v>-0.1290887547838273</v>
+      </c>
+      <c r="K77">
+        <v>0.02182121962809569</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.1277764320477002</v>
+        <v>0.1632060070893453</v>
       </c>
       <c r="C78">
-        <v>-0.06842231037242605</v>
+        <v>-0.07124116135135353</v>
       </c>
       <c r="D78">
-        <v>-0.04952261060791963</v>
+        <v>-0.02667065820753217</v>
       </c>
       <c r="E78">
-        <v>-0.01298976904193874</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.05633910158194646</v>
+      </c>
+      <c r="F78">
+        <v>0.1764590007090747</v>
+      </c>
+      <c r="G78">
+        <v>0.02804516859624409</v>
+      </c>
+      <c r="H78">
+        <v>-0.1084493399047051</v>
+      </c>
+      <c r="I78">
+        <v>0.01543225733932823</v>
+      </c>
+      <c r="J78">
+        <v>0.0766733200354428</v>
+      </c>
+      <c r="K78">
+        <v>0.08080301005658305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.1507300740937268</v>
+        <v>0.1447497044914064</v>
       </c>
       <c r="C79">
-        <v>-0.01949036580923271</v>
+        <v>-0.04160917917163164</v>
       </c>
       <c r="D79">
-        <v>-0.06229466136382989</v>
+        <v>-0.04491098137246165</v>
       </c>
       <c r="E79">
-        <v>-0.001931778322655357</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.01023090139927942</v>
+      </c>
+      <c r="F79">
+        <v>-0.001556025235106707</v>
+      </c>
+      <c r="G79">
+        <v>0.009236779813141983</v>
+      </c>
+      <c r="H79">
+        <v>0.1970485600488941</v>
+      </c>
+      <c r="I79">
+        <v>-0.04422191800267493</v>
+      </c>
+      <c r="J79">
+        <v>0.07214871900698903</v>
+      </c>
+      <c r="K79">
+        <v>0.01505558034113998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.03782851681320836</v>
+        <v>0.04331650057427183</v>
       </c>
       <c r="C80">
-        <v>-0.02106966993480996</v>
+        <v>-0.007647081073490102</v>
       </c>
       <c r="D80">
-        <v>-0.01187575648706321</v>
+        <v>-0.03982305479212035</v>
       </c>
       <c r="E80">
-        <v>-0.005695108347915225</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.002055168561529845</v>
+      </c>
+      <c r="F80">
+        <v>-0.04039680038556388</v>
+      </c>
+      <c r="G80">
+        <v>0.00275702306486885</v>
+      </c>
+      <c r="H80">
+        <v>-0.03456382240067175</v>
+      </c>
+      <c r="I80">
+        <v>0.08221659678398112</v>
+      </c>
+      <c r="J80">
+        <v>-0.0131930508657662</v>
+      </c>
+      <c r="K80">
+        <v>-0.02014462549591776</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.1371435332292105</v>
+        <v>0.133377329798768</v>
       </c>
       <c r="C81">
-        <v>-0.001322394385102626</v>
+        <v>-0.0185454364065729</v>
       </c>
       <c r="D81">
-        <v>-0.05003623156465563</v>
+        <v>-0.0389151071407423</v>
       </c>
       <c r="E81">
-        <v>-0.02961581419491742</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.001981838351691558</v>
+      </c>
+      <c r="F81">
+        <v>-0.006633878857808681</v>
+      </c>
+      <c r="G81">
+        <v>-0.01709286921140962</v>
+      </c>
+      <c r="H81">
+        <v>0.1598637759822411</v>
+      </c>
+      <c r="I81">
+        <v>0.002710132408029778</v>
+      </c>
+      <c r="J81">
+        <v>-0.02568636307990073</v>
+      </c>
+      <c r="K81">
+        <v>-0.01115372702256543</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.1234113688385353</v>
+        <v>0.1266467652501</v>
       </c>
       <c r="C82">
-        <v>-0.01766673986867409</v>
+        <v>-0.02914482789837924</v>
       </c>
       <c r="D82">
-        <v>-0.03149812143030632</v>
+        <v>-0.03860954936009169</v>
       </c>
       <c r="E82">
-        <v>-0.03743156991030444</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.0001732316746120923</v>
+      </c>
+      <c r="F82">
+        <v>-0.02516132710960665</v>
+      </c>
+      <c r="G82">
+        <v>-0.04327141588539409</v>
+      </c>
+      <c r="H82">
+        <v>0.2776246009449378</v>
+      </c>
+      <c r="I82">
+        <v>-0.0290277343729778</v>
+      </c>
+      <c r="J82">
+        <v>-0.01022411741600449</v>
+      </c>
+      <c r="K82">
+        <v>-0.0150158116876161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.05514887520712487</v>
+        <v>0.07731593709688737</v>
       </c>
       <c r="C83">
-        <v>-0.02008706316526656</v>
+        <v>-0.03269798599895233</v>
       </c>
       <c r="D83">
-        <v>0.06050715042194852</v>
+        <v>0.03158859516403208</v>
       </c>
       <c r="E83">
-        <v>-0.0209823222311908</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.04173797387236512</v>
+      </c>
+      <c r="F83">
+        <v>-0.06672763998347085</v>
+      </c>
+      <c r="G83">
+        <v>-0.02884052093138996</v>
+      </c>
+      <c r="H83">
+        <v>-0.07704285464110258</v>
+      </c>
+      <c r="I83">
+        <v>0.07733851349128819</v>
+      </c>
+      <c r="J83">
+        <v>-0.0446384967276334</v>
+      </c>
+      <c r="K83">
+        <v>-0.03543255912708007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.05215915256181659</v>
+        <v>0.03612323773699914</v>
       </c>
       <c r="C84">
-        <v>-0.01452036125474086</v>
+        <v>-0.04331255384463347</v>
       </c>
       <c r="D84">
-        <v>-0.04458630759673791</v>
+        <v>-0.003506243211480746</v>
       </c>
       <c r="E84">
-        <v>0.02771646326641767</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.05409894028693409</v>
+      </c>
+      <c r="F84">
+        <v>0.04295446370047944</v>
+      </c>
+      <c r="G84">
+        <v>-0.05168920001436877</v>
+      </c>
+      <c r="H84">
+        <v>-0.003704844195750144</v>
+      </c>
+      <c r="I84">
+        <v>0.1211789270055021</v>
+      </c>
+      <c r="J84">
+        <v>-0.02858944566736332</v>
+      </c>
+      <c r="K84">
+        <v>-0.1057938877523869</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.1139996338363987</v>
+        <v>0.1209667122231892</v>
       </c>
       <c r="C85">
-        <v>-0.03382525987129092</v>
+        <v>-0.03782815838785377</v>
       </c>
       <c r="D85">
-        <v>-0.01925398569949846</v>
+        <v>-0.02455015822059842</v>
       </c>
       <c r="E85">
-        <v>-0.05971145376866868</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.03457781940903881</v>
+      </c>
+      <c r="F85">
+        <v>0.005526772853124047</v>
+      </c>
+      <c r="G85">
+        <v>-0.007943635915569501</v>
+      </c>
+      <c r="H85">
+        <v>0.2006688246530498</v>
+      </c>
+      <c r="I85">
+        <v>-0.01207097686105195</v>
+      </c>
+      <c r="J85">
+        <v>0.07057378360471386</v>
+      </c>
+      <c r="K85">
+        <v>0.02370556189830534</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.07762930467031322</v>
+        <v>0.0703168134154212</v>
       </c>
       <c r="C86">
-        <v>-0.06551151224963531</v>
+        <v>-0.03310103563477199</v>
       </c>
       <c r="D86">
-        <v>-0.01620810288511714</v>
+        <v>0.008448713039050156</v>
       </c>
       <c r="E86">
-        <v>-0.006814500534683669</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.01967112290244716</v>
+      </c>
+      <c r="F86">
+        <v>0.03718213908156109</v>
+      </c>
+      <c r="G86">
+        <v>-0.01407227986284532</v>
+      </c>
+      <c r="H86">
+        <v>-0.0333836405587522</v>
+      </c>
+      <c r="I86">
+        <v>-0.01447920355573988</v>
+      </c>
+      <c r="J86">
+        <v>0.03401884717752427</v>
+      </c>
+      <c r="K86">
+        <v>-0.05393805940497121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.13389023205914</v>
+        <v>0.1315341706924696</v>
       </c>
       <c r="C87">
-        <v>-0.07033764815870197</v>
+        <v>-0.07154198383157367</v>
       </c>
       <c r="D87">
-        <v>-0.06151053821730241</v>
+        <v>-0.01956012383084544</v>
       </c>
       <c r="E87">
-        <v>-0.03574488056092036</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.01165806877126109</v>
+      </c>
+      <c r="F87">
+        <v>0.1002379026263178</v>
+      </c>
+      <c r="G87">
+        <v>0.205232519916631</v>
+      </c>
+      <c r="H87">
+        <v>-0.03961596327281315</v>
+      </c>
+      <c r="I87">
+        <v>-0.01025092786606201</v>
+      </c>
+      <c r="J87">
+        <v>-0.02706392142588051</v>
+      </c>
+      <c r="K87">
+        <v>-0.0232691932988256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.05804983603548731</v>
+        <v>0.0647598324567244</v>
       </c>
       <c r="C88">
-        <v>-0.0208485148800445</v>
+        <v>-0.03671074163947865</v>
       </c>
       <c r="D88">
-        <v>-0.01562330225730438</v>
+        <v>-0.03015346888255209</v>
       </c>
       <c r="E88">
-        <v>-0.008409047558014153</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.008941585177915844</v>
+      </c>
+      <c r="F88">
+        <v>-0.005284809905134091</v>
+      </c>
+      <c r="G88">
+        <v>0.007050972314143664</v>
+      </c>
+      <c r="H88">
+        <v>0.01570154665778535</v>
+      </c>
+      <c r="I88">
+        <v>0.03851009024310757</v>
+      </c>
+      <c r="J88">
+        <v>-0.02456975429848298</v>
+      </c>
+      <c r="K88">
+        <v>-0.0213449794086778</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.07536211822420417</v>
+        <v>0.1419009073382858</v>
       </c>
       <c r="C89">
-        <v>0.326220783639559</v>
+        <v>0.3781971742572468</v>
       </c>
       <c r="D89">
-        <v>0.01489585197871905</v>
+        <v>-0.007059511278621884</v>
       </c>
       <c r="E89">
-        <v>-0.1106646898389994</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.08046223730412935</v>
+      </c>
+      <c r="F89">
+        <v>0.031806579899171</v>
+      </c>
+      <c r="G89">
+        <v>-0.02672301468894203</v>
+      </c>
+      <c r="H89">
+        <v>-0.01091221292297857</v>
+      </c>
+      <c r="I89">
+        <v>0.06250888117591961</v>
+      </c>
+      <c r="J89">
+        <v>-0.07791608807734735</v>
+      </c>
+      <c r="K89">
+        <v>0.01303978440880513</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.06130361806434851</v>
+        <v>0.09920268612959106</v>
       </c>
       <c r="C90">
-        <v>0.2878372678519225</v>
+        <v>0.2834050796770666</v>
       </c>
       <c r="D90">
-        <v>0.03546901607815092</v>
+        <v>0.025781658775172</v>
       </c>
       <c r="E90">
-        <v>-0.04989427042724098</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.02991290592226597</v>
+      </c>
+      <c r="F90">
+        <v>0.015781664165974</v>
+      </c>
+      <c r="G90">
+        <v>0.02892944417263562</v>
+      </c>
+      <c r="H90">
+        <v>-0.04011949928004253</v>
+      </c>
+      <c r="I90">
+        <v>0.05974309167969749</v>
+      </c>
+      <c r="J90">
+        <v>-0.05631062743613358</v>
+      </c>
+      <c r="K90">
+        <v>0.01819101750290157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.1042375097778472</v>
+        <v>0.08959792601365493</v>
       </c>
       <c r="C91">
-        <v>-0.009862325706769322</v>
+        <v>-0.03571495985521927</v>
       </c>
       <c r="D91">
-        <v>-0.02901995702295588</v>
+        <v>-0.006160643610598607</v>
       </c>
       <c r="E91">
-        <v>-0.01370335896747569</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.00182099586157262</v>
+      </c>
+      <c r="F91">
+        <v>-0.01061877697954764</v>
+      </c>
+      <c r="G91">
+        <v>-0.0356389438981063</v>
+      </c>
+      <c r="H91">
+        <v>0.08911810241727153</v>
+      </c>
+      <c r="I91">
+        <v>-0.01789276657701731</v>
+      </c>
+      <c r="J91">
+        <v>0.0119320076029188</v>
+      </c>
+      <c r="K91">
+        <v>0.01648103083764599</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.04469345193151902</v>
+        <v>0.09992643701818837</v>
       </c>
       <c r="C92">
-        <v>0.3393245567916629</v>
+        <v>0.3392540323129161</v>
       </c>
       <c r="D92">
-        <v>-0.004613449080949693</v>
+        <v>-0.009310762856493087</v>
       </c>
       <c r="E92">
-        <v>-0.09291769211149821</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.03817939486506591</v>
+      </c>
+      <c r="F92">
+        <v>0.04448826011733837</v>
+      </c>
+      <c r="G92">
+        <v>-0.0264639779252844</v>
+      </c>
+      <c r="H92">
+        <v>0.01356600128572578</v>
+      </c>
+      <c r="I92">
+        <v>0.02037356529061847</v>
+      </c>
+      <c r="J92">
+        <v>-0.02804705375345276</v>
+      </c>
+      <c r="K92">
+        <v>0.002322047888540571</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.04140190802873787</v>
+        <v>0.1007631206544423</v>
       </c>
       <c r="C93">
-        <v>0.2999823216774398</v>
+        <v>0.317357984281423</v>
       </c>
       <c r="D93">
-        <v>0.01873330595035019</v>
+        <v>-0.00227050840581696</v>
       </c>
       <c r="E93">
-        <v>-0.05330239462295638</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02059125959948154</v>
+      </c>
+      <c r="F93">
+        <v>0.002057482313948302</v>
+      </c>
+      <c r="G93">
+        <v>-0.003208806208990532</v>
+      </c>
+      <c r="H93">
+        <v>-0.01312012203195664</v>
+      </c>
+      <c r="I93">
+        <v>0.0006745921950299732</v>
+      </c>
+      <c r="J93">
+        <v>0.009299303777653787</v>
+      </c>
+      <c r="K93">
+        <v>-0.03237720777060238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.1278740303434905</v>
+        <v>0.1202243962948171</v>
       </c>
       <c r="C94">
-        <v>-0.05193541570927852</v>
+        <v>-0.05697002851541873</v>
       </c>
       <c r="D94">
-        <v>-0.02845474671034038</v>
+        <v>-0.01035209638422394</v>
       </c>
       <c r="E94">
-        <v>-0.03509309825262447</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.0236151574660044</v>
+      </c>
+      <c r="F94">
+        <v>0.002364818111872221</v>
+      </c>
+      <c r="G94">
+        <v>-0.07359637182498621</v>
+      </c>
+      <c r="H94">
+        <v>0.1104829232223271</v>
+      </c>
+      <c r="I94">
+        <v>-0.01687532583424836</v>
+      </c>
+      <c r="J94">
+        <v>0.01697216103290578</v>
+      </c>
+      <c r="K94">
+        <v>0.01458954402877848</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.1274689788706555</v>
+        <v>0.1384796106932259</v>
       </c>
       <c r="C95">
-        <v>-0.07603815660052519</v>
+        <v>-0.06643016168872598</v>
       </c>
       <c r="D95">
-        <v>-0.06858565469483911</v>
+        <v>-0.04031023345843651</v>
       </c>
       <c r="E95">
-        <v>-0.06671240837170184</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.02792814034456546</v>
+      </c>
+      <c r="F95">
+        <v>0.05977569926345667</v>
+      </c>
+      <c r="G95">
+        <v>0.04014390175374876</v>
+      </c>
+      <c r="H95">
+        <v>-0.1461273671471567</v>
+      </c>
+      <c r="I95">
+        <v>0.04245747730873485</v>
+      </c>
+      <c r="J95">
+        <v>0.01850301686392647</v>
+      </c>
+      <c r="K95">
+        <v>0.01012617021717935</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +4054,133 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.250731219995279</v>
+        <v>0.188548146389502</v>
       </c>
       <c r="C97">
-        <v>0.149837824642977</v>
+        <v>0.03343506032245942</v>
       </c>
       <c r="D97">
-        <v>-0.02674813539665905</v>
+        <v>0.300772279663677</v>
       </c>
       <c r="E97">
-        <v>0.8904104601398477</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.8877182206262164</v>
+      </c>
+      <c r="F97">
+        <v>-0.07353658875552414</v>
+      </c>
+      <c r="G97">
+        <v>0.04790300898761361</v>
+      </c>
+      <c r="H97">
+        <v>-0.06129872817582643</v>
+      </c>
+      <c r="I97">
+        <v>0.04199762596172466</v>
+      </c>
+      <c r="J97">
+        <v>-0.04819884568394739</v>
+      </c>
+      <c r="K97">
+        <v>0.05139057382862369</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.2888054755503541</v>
+        <v>0.2859531332230761</v>
       </c>
       <c r="C98">
-        <v>-0.0414341828277514</v>
+        <v>-0.09523983136832817</v>
       </c>
       <c r="D98">
-        <v>0.01551516001117545</v>
+        <v>-0.04929441038001762</v>
       </c>
       <c r="E98">
-        <v>-0.0809112988765341</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.02118831400168644</v>
+      </c>
+      <c r="F98">
+        <v>-0.3224611161575374</v>
+      </c>
+      <c r="G98">
+        <v>-0.2260841221823693</v>
+      </c>
+      <c r="H98">
+        <v>-0.2847654002958571</v>
+      </c>
+      <c r="I98">
+        <v>-0.2668303804218293</v>
+      </c>
+      <c r="J98">
+        <v>-0.06628673986424719</v>
+      </c>
+      <c r="K98">
+        <v>-0.6304983213025215</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>-0.2339228852103961</v>
+        <v>0.150176605529971</v>
       </c>
       <c r="C99">
-        <v>-0.07252106840625015</v>
+        <v>-0.06798171018946451</v>
       </c>
       <c r="D99">
-        <v>0.9266636643199371</v>
+        <v>0.7700163332833392</v>
       </c>
       <c r="E99">
-        <v>-0.00823988301379837</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.3266279491281269</v>
+      </c>
+      <c r="F99">
+        <v>-0.3925455536851261</v>
+      </c>
+      <c r="G99">
+        <v>0.03008833600344791</v>
+      </c>
+      <c r="H99">
+        <v>0.1236258253155081</v>
+      </c>
+      <c r="I99">
+        <v>0.07780492822278234</v>
+      </c>
+      <c r="J99">
+        <v>0.1015297633934378</v>
+      </c>
+      <c r="K99">
+        <v>0.04628674506396955</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,27 +4194,63 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.05875282289597668</v>
+        <v>0.0550011582342003</v>
       </c>
       <c r="C101">
-        <v>-0.0005419186468862433</v>
+        <v>-0.01163166513515366</v>
       </c>
       <c r="D101">
-        <v>-0.02998158169394486</v>
+        <v>-0.02394536863300886</v>
       </c>
       <c r="E101">
-        <v>-0.02240107137226865</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.01591645012431425</v>
+      </c>
+      <c r="F101">
+        <v>0.03531619831800045</v>
+      </c>
+      <c r="G101">
+        <v>0.01573853170328927</v>
+      </c>
+      <c r="H101">
+        <v>0.06396174356549464</v>
+      </c>
+      <c r="I101">
+        <v>0.04673279367694686</v>
+      </c>
+      <c r="J101">
+        <v>0.01220282157024113</v>
+      </c>
+      <c r="K101">
+        <v>-0.03714789091536197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +4264,28 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +4299,28 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4332,24 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
